--- a/Product Sheet.xlsx
+++ b/Product Sheet.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="5070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5115"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <oleSize ref="A1:I14"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>ProductName</t>
   </si>
@@ -68,21 +68,6 @@
     <t>Matt</t>
   </si>
   <si>
-    <t>Test 120</t>
-  </si>
-  <si>
-    <t>Test 121</t>
-  </si>
-  <si>
-    <t>Test 122</t>
-  </si>
-  <si>
-    <t>Test 123</t>
-  </si>
-  <si>
-    <t>Test 124</t>
-  </si>
-  <si>
     <t>This is test 120 product</t>
   </si>
   <si>
@@ -119,16 +104,28 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Test Brand</t>
-  </si>
-  <si>
-    <t>Epoxy Mastic</t>
-  </si>
-  <si>
-    <t>Top Coat</t>
-  </si>
-  <si>
-    <t>Test Sub Child Category</t>
+    <t>Jotun</t>
+  </si>
+  <si>
+    <t>Tinters</t>
+  </si>
+  <si>
+    <t>Comp-A</t>
+  </si>
+  <si>
+    <t>Test 01</t>
+  </si>
+  <si>
+    <t>Test 02</t>
+  </si>
+  <si>
+    <t>Test 03</t>
+  </si>
+  <si>
+    <t>Test 04</t>
+  </si>
+  <si>
+    <t>Test 05</t>
   </si>
 </sst>
 </file>
@@ -477,7 +474,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,9 +489,9 @@
     <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="2" customWidth="1"/>
@@ -506,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -539,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -557,13 +554,13 @@
     </row>
     <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1">
         <v>320004</v>
@@ -572,20 +569,16 @@
         <v>32099090</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1">
         <v>10</v>
       </c>
@@ -596,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>15</v>
@@ -611,13 +604,13 @@
     </row>
     <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>320005</v>
@@ -626,20 +619,16 @@
         <v>32099090</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1">
         <v>10</v>
       </c>
@@ -650,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>15</v>
@@ -665,13 +654,13 @@
     </row>
     <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>320001</v>
@@ -680,20 +669,16 @@
         <v>32099090</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1">
         <v>10</v>
       </c>
@@ -704,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -719,13 +704,13 @@
     </row>
     <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>320002</v>
@@ -734,20 +719,16 @@
         <v>32099090</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1">
         <v>10</v>
       </c>
@@ -758,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>15</v>
@@ -773,13 +754,13 @@
     </row>
     <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>320004</v>
@@ -788,20 +769,16 @@
         <v>32099090</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1">
         <v>10</v>
       </c>
@@ -812,7 +789,7 @@
         <v>8</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>15</v>

--- a/Product Sheet.xlsx
+++ b/Product Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -113,19 +113,19 @@
     <t>Comp-A</t>
   </si>
   <si>
-    <t>Test 01</t>
-  </si>
-  <si>
-    <t>Test 02</t>
-  </si>
-  <si>
-    <t>Test 03</t>
-  </si>
-  <si>
-    <t>Test 04</t>
-  </si>
-  <si>
-    <t>Test 05</t>
+    <t>Test 015</t>
+  </si>
+  <si>
+    <t>Test 025</t>
+  </si>
+  <si>
+    <t>Test 035</t>
+  </si>
+  <si>
+    <t>Test 045</t>
+  </si>
+  <si>
+    <t>Test 055</t>
   </si>
 </sst>
 </file>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
